--- a/Reference/H+O2=O+OH/H+O2=O+OH.xlsx
+++ b/Reference/H+O2=O+OH/H+O2=O+OH.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangx\Desktop\H2_O2\Reference\H+O2=O+OH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD0B96-DAF9-4C5E-A0FD-21F27E2F91BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="17895" windowHeight="11445"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H+O2=O+OH_Ref" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Author</t>
   </si>
@@ -116,18 +122,60 @@
   </si>
   <si>
     <t>Yuan et al</t>
+  </si>
+  <si>
+    <t>O+OH rate</t>
+  </si>
+  <si>
+    <t>Westenberg et al</t>
+  </si>
+  <si>
+    <t>Lewis et al</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t> J. Chem. Soc. Faraday Trans.</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t> J. Chem. Soc. Faraday Trans. 2</t>
+  </si>
+  <si>
+    <t>comment: this is 2sigma uncertainty of the rate measurement. However, temperature has 5K uncertainty</t>
+  </si>
+  <si>
+    <t>comment: temperature control is more accurate to 0.5K level</t>
+  </si>
+  <si>
+    <t>Comments: temperature control is 4K</t>
+  </si>
+  <si>
+    <t>comments: temperature control is 3K</t>
+  </si>
+  <si>
+    <t>RovertSon et al</t>
+  </si>
+  <si>
+    <t> J. Phys. Chem. A</t>
+  </si>
+  <si>
+    <t>300 Uncertainty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +219,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,6 +268,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,13 +286,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,30 +587,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="85" width="9.140625" style="12" customWidth="1"/>
-    <col min="86" max="16384" width="9.140625" style="12"/>
+    <col min="9" max="9" width="13.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="85" width="9.1796875" style="12" customWidth="1"/>
+    <col min="86" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
@@ -1159,7 +1217,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:21">
       <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
@@ -1196,14 +1254,14 @@
       <c r="M17" s="19"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="F18" s="13"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
       <c r="K18" s="15"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="F19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
@@ -1211,7 +1269,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1226,40 +1284,235 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="F21" s="13"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:21">
       <c r="P22" s="1"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:21">
       <c r="G23" s="8"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:21">
+      <c r="A24" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="U24" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="18">
+      <c r="A25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1970</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="12">
+        <v>228</v>
+      </c>
+      <c r="E25" s="12">
+        <v>340</v>
+      </c>
+      <c r="F25" s="13">
+        <v>3.3199999999999999E-11</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>4.9800000000000002E-12</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="U25" s="13">
+        <f>I25/F25</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="18">
+      <c r="A26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="12">
+        <v>220</v>
+      </c>
+      <c r="E26" s="12">
+        <v>500</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>-0.93</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1.8300000000000001E-12</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>-0.24</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="27" spans="1:21" ht="18">
+      <c r="A27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1994</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12">
+        <v>158</v>
+      </c>
+      <c r="E27" s="12">
+        <v>294</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1.35E-11</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="H27" s="12">
+        <v>-2.8</v>
+      </c>
+      <c r="I27" s="13">
+        <f>F27*0.08</f>
+        <v>1.08E-12</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="18">
+      <c r="A28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1981</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="12">
+        <v>250</v>
+      </c>
+      <c r="E28" s="12">
+        <v>515</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3.8500000000000003E-11</v>
+      </c>
+      <c r="G28" s="12">
+        <v>-0.5</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1.1599999999999999E-12</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="18">
+      <c r="A29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="12">
+        <v>136</v>
+      </c>
+      <c r="E29" s="12">
+        <v>377</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1.8100000000000001E-11</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-0.32</v>
+      </c>
+      <c r="H29" s="12">
+        <v>-1.47</v>
+      </c>
+      <c r="I29" s="13">
+        <f>F29*0.16</f>
+        <v>2.8960000000000002E-12</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="F32" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" tooltip="Go to Chemical Physics Letters on ScienceDirect" display="https://www.sciencedirect.com/science/journal/00092614"/>
+    <hyperlink ref="C14" r:id="rId1" tooltip="Go to Chemical Physics Letters on ScienceDirect" display="https://www.sciencedirect.com/science/journal/00092614" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>